--- a/mysql/erd.xlsx
+++ b/mysql/erd.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="112">
   <si>
     <t>사원테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,143 @@
   </si>
   <si>
     <t>REACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTER JOIN 결과 - INNER JOIN + 선택한 테이블(SUBJECT) 중 INNER JOIN 제외한 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+  </si>
+  <si>
+    <t>S0002</t>
+  </si>
+  <si>
+    <t>S0003</t>
+  </si>
+  <si>
+    <t>S0004</t>
+  </si>
+  <si>
+    <t>S0011</t>
+  </si>
+  <si>
+    <t>S0005</t>
+  </si>
+  <si>
+    <t>S0006</t>
+  </si>
+  <si>
+    <t>S0019</t>
+  </si>
+  <si>
+    <t>S0007</t>
+  </si>
+  <si>
+    <t>S0008</t>
+  </si>
+  <si>
+    <t>S0009</t>
+  </si>
+  <si>
+    <t>S0010</t>
+  </si>
+  <si>
+    <t>정효리</t>
+  </si>
+  <si>
+    <t>오감자</t>
+  </si>
+  <si>
+    <t>S0012</t>
+  </si>
+  <si>
+    <t>최일국</t>
+  </si>
+  <si>
+    <t>S0013</t>
+  </si>
+  <si>
+    <t>한국인</t>
+  </si>
+  <si>
+    <t>S0014</t>
+  </si>
+  <si>
+    <t>이최고</t>
+  </si>
+  <si>
+    <t>S0015</t>
+  </si>
+  <si>
+    <t>박치기</t>
+  </si>
+  <si>
+    <t>S0016</t>
+  </si>
+  <si>
+    <t>한사랑</t>
+  </si>
+  <si>
+    <t>S0017</t>
+  </si>
+  <si>
+    <t>나도야</t>
+  </si>
+  <si>
+    <t>S0018</t>
+  </si>
+  <si>
+    <t>이리와</t>
+  </si>
+  <si>
+    <t>정주고</t>
+  </si>
+  <si>
+    <t>S0020</t>
+  </si>
+  <si>
+    <t>고소해</t>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E.EMP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.EMP_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +482,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -375,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +571,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="C116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -2337,6 +2519,1160 @@
       </c>
       <c r="K78" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>1</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="9">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="E83" s="8">
+        <v>1</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+      <c r="H83" s="9">
+        <v>45663.571296296293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>2</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="9">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="E84" s="8">
+        <v>2</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="8">
+        <v>2</v>
+      </c>
+      <c r="H84" s="9">
+        <v>45663.571296296293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>3</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="9">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="E85" s="8">
+        <v>3</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="8">
+        <v>3</v>
+      </c>
+      <c r="H85" s="9">
+        <v>45663.571296296293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>4</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="9">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="E86" s="8">
+        <v>4</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="8">
+        <v>1</v>
+      </c>
+      <c r="H86" s="9">
+        <v>45663.571296296293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
+        <v>1</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="9">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="8">
+        <v>1</v>
+      </c>
+      <c r="G91" s="9">
+        <v>45663.571296296293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>1</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="9">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="8">
+        <v>1</v>
+      </c>
+      <c r="G92" s="9">
+        <v>45663.571296296293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
+        <v>2</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="9">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="D93" s="8">
+        <v>2</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="8">
+        <v>2</v>
+      </c>
+      <c r="G93" s="9">
+        <v>45663.571296296293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>3</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="9">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="D94" s="8">
+        <v>3</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="8">
+        <v>3</v>
+      </c>
+      <c r="G94" s="9">
+        <v>45663.571296296293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="14">
+        <v>4</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="15">
+        <v>45663.528692129628</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="I97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M98" s="7"/>
+      <c r="O98" s="7"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M99" s="7"/>
+      <c r="O99" s="7"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="O100" s="7"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M101" s="7"/>
+      <c r="O101" s="7"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M102" s="7"/>
+      <c r="O102" s="7"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M103" s="7"/>
+      <c r="O103" s="7"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M104" s="7"/>
+      <c r="O104" s="7"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M106" s="7"/>
+      <c r="O106" s="7"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M107" s="7"/>
+      <c r="O107" s="7"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M108" s="7"/>
+      <c r="O108" s="7"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M109" s="7"/>
+      <c r="O109" s="7"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="O110" s="7"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M111" s="7"/>
+      <c r="O111" s="7"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F112" s="17"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M112" s="7"/>
+      <c r="O112" s="7"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M113" s="7"/>
+      <c r="O113" s="7"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M114" s="7"/>
+      <c r="O114" s="7"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115" s="17"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="O115" s="7"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M116" s="7"/>
+      <c r="O116" s="7"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M117" s="7"/>
+      <c r="O117" s="7"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K118" s="7"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C120" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F120" t="s">
+        <v>109</v>
+      </c>
+      <c r="G120" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C121" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C122" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C123" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C124" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C125" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C126" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C127" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H127" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C128" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C129" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H129" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C130" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C131" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C132" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H132" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C133" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H133" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C134" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H134" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C135" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H135" s="21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/mysql/erd.xlsx
+++ b/mysql/erd.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="174">
   <si>
     <t>사원테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,195 @@
   <si>
     <t>M.EMP_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인라인뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCOUNT(휴가사용일수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong</t>
+  </si>
+  <si>
+    <t>010-1234-1234</t>
+  </si>
+  <si>
+    <t>hong@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>jiemae</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>017-111-1222</t>
+  </si>
+  <si>
+    <t>jimae@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>010-1222-2221</t>
+  </si>
+  <si>
+    <t>woodong@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>samsam</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>010-3212-3212</t>
+  </si>
+  <si>
+    <t>samsoon.kim@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>010-9876-5432</t>
+  </si>
+  <si>
+    <t>samsik@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>kimchi</t>
+  </si>
+  <si>
+    <t>HRD</t>
+  </si>
+  <si>
+    <t>010-8765-8765</t>
+  </si>
+  <si>
+    <t>chikook@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>017-543-3456</t>
+  </si>
+  <si>
+    <t>ahn@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>parks</t>
+  </si>
+  <si>
+    <t>010-2345-5432</t>
+  </si>
+  <si>
+    <t>yeosa@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>samoya</t>
+  </si>
+  <si>
+    <t>011-899-9988</t>
+  </si>
+  <si>
+    <t>samo@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>010-9988-9900</t>
+  </si>
+  <si>
+    <t>hyori.jung@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>fivegamja</t>
+  </si>
+  <si>
+    <t>010-6655-7788</t>
+  </si>
+  <si>
+    <t>gamja@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>ilgook</t>
+  </si>
+  <si>
+    <t>010-8703-7123</t>
+  </si>
+  <si>
+    <t>ilkook@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>korea</t>
+  </si>
+  <si>
+    <t>010-6611-1266</t>
+  </si>
+  <si>
+    <t>hankook@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>010-2345-9886</t>
+  </si>
+  <si>
+    <t>one@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>010-8800-0010</t>
+  </si>
+  <si>
+    <t>chichi@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>onelove</t>
+  </si>
+  <si>
+    <t>010-3215-0987</t>
+  </si>
+  <si>
+    <t>love@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>nado</t>
+  </si>
+  <si>
+    <t>010-3399-9933</t>
+  </si>
+  <si>
+    <t>yaya@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>010-5521-1252</t>
+  </si>
+  <si>
+    <t>comeon@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>010-7777-2277</t>
+  </si>
+  <si>
+    <t>give@d-friends.co.kr</t>
+  </si>
+  <si>
+    <t>gogo</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>010-9966-1230</t>
+  </si>
+  <si>
+    <t>haha@d-friends.co.kr</t>
   </si>
 </sst>
 </file>
@@ -530,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +787,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -880,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="B123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,13 +1083,15 @@
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="15.75" customWidth="1"/>
     <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3535,7 +3729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C129" s="22" t="s">
         <v>83</v>
       </c>
@@ -3555,7 +3749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C130" s="22" t="s">
         <v>90</v>
       </c>
@@ -3575,7 +3769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C131" s="22" t="s">
         <v>92</v>
       </c>
@@ -3595,7 +3789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C132" s="22" t="s">
         <v>78</v>
       </c>
@@ -3615,7 +3809,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C133" s="22" t="s">
         <v>81</v>
       </c>
@@ -3635,7 +3829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C134" s="22" t="s">
         <v>94</v>
       </c>
@@ -3655,7 +3849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C135" s="22" t="s">
         <v>98</v>
       </c>
@@ -3674,6 +3868,709 @@
       <c r="H135" s="21" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="138" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C138" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C139" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C140" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D140" s="8">
+        <v>71</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K140" s="17">
+        <v>41275</v>
+      </c>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N140" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O140" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P140" s="7">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="141" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C141" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D141" s="8">
+        <v>35</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K141" s="17">
+        <v>41286</v>
+      </c>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N141" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O141" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P141" s="7">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="142" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C142" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D142" s="8">
+        <v>33</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142" s="17">
+        <v>41730</v>
+      </c>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N142" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O142" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P142" s="7">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="143" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C143" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D143" s="8">
+        <v>23</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J143" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K143" s="17">
+        <v>41852</v>
+      </c>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N143" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O143" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P143" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="144" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C144" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D144" s="8">
+        <v>27</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K144" s="17">
+        <v>42005</v>
+      </c>
+      <c r="L144" s="17">
+        <v>42766</v>
+      </c>
+      <c r="M144" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N144" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O144" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P144" s="7">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="145" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C145" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" s="8">
+        <v>21</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145" s="17">
+        <v>42064</v>
+      </c>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N145" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O145" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P145" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="146" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C146" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="8">
+        <v>8</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K146" s="17">
+        <v>42125</v>
+      </c>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N146" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O146" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P146" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="147" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C147" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D147" s="8">
+        <v>7</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K147" s="17">
+        <v>42217</v>
+      </c>
+      <c r="L147" s="17">
+        <v>42643</v>
+      </c>
+      <c r="M147" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N147" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O147" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P147" s="7">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="148" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C148" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D148" s="8">
+        <v>19</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K148" s="17">
+        <v>42278</v>
+      </c>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N148" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O148" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P148" s="7">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="149" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C149" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D149" s="8">
+        <v>16</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K149" s="17">
+        <v>42370</v>
+      </c>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N149" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O149" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P149" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="150" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C150" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D150" s="8">
+        <v>10</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J150" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K150" s="17">
+        <v>42401</v>
+      </c>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N150" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O150" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P150" s="7">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="151" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C151" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D151" s="8">
+        <v>4</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K151" s="17">
+        <v>42401</v>
+      </c>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N151" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O151" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P151" s="7">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="152" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C152" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="8">
+        <v>9</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J152" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K152" s="17">
+        <v>42461</v>
+      </c>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N152" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O152" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P152" s="7">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="153" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C153" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" s="8">
+        <v>6</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K153" s="17">
+        <v>42461</v>
+      </c>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N153" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O153" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P153" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="154" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="G154" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K154" s="17">
+        <v>42522</v>
+      </c>
+      <c r="L154" s="17">
+        <v>42886</v>
+      </c>
+      <c r="M154" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N154" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O154" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P154" s="7">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="155" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G155" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J155" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K155" s="17">
+        <v>42522</v>
+      </c>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N155" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O155" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P155" s="7">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="156" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G156" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J156" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K156" s="17">
+        <v>43070</v>
+      </c>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N156" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O156" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P156" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="157" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="G157" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K157" s="17">
+        <v>43101</v>
+      </c>
+      <c r="L157" s="17">
+        <v>43281</v>
+      </c>
+      <c r="M157" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N157" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O157" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P157" s="7">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="158" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G158" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K158" s="17">
+        <v>43101</v>
+      </c>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N158" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O158" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P158" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="159" spans="3:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G159" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K159" s="17">
+        <v>43191</v>
+      </c>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="N159" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="O159" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P159" s="7"/>
+    </row>
+    <row r="160" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
